--- a/docs/spec/tables/primitives.xlsx
+++ b/docs/spec/tables/primitives.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA261B0-11E6-42CB-A99B-465C723FF7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131FCDCD-245D-4957-92AC-C39D855B2FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <cols>
     <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="28.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">

--- a/docs/spec/tables/primitives.xlsx
+++ b/docs/spec/tables/primitives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131FCDCD-245D-4957-92AC-C39D855B2FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F381FC1A-6646-4AA3-9E10-27FEAB93287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -509,7 +509,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -520,7 +520,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -531,7 +531,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -542,7 +542,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -553,7 +553,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -564,7 +564,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">

--- a/docs/spec/tables/primitives.xlsx
+++ b/docs/spec/tables/primitives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F381FC1A-6646-4AA3-9E10-27FEAB93287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E34EAA-78EB-46E5-96AE-709494681B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -53,52 +53,52 @@
     <t>64-bit signed integer value</t>
   </si>
   <si>
-    <t>int x = 1;</t>
-  </si>
-  <si>
     <t>double</t>
   </si>
   <si>
     <t>64-bit signed numerical value, including decimal values</t>
   </si>
   <si>
-    <t>double x = 0.05;</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>sequence of characters</t>
   </si>
   <si>
-    <t>string name = "hastar";</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
     <t>represents boolean values either 0/1 or true/false</t>
   </si>
   <si>
-    <t>bool flag = true;</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>represent dates</t>
   </si>
   <si>
-    <t>date today = 2023-04-15;</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
     <t>represents time</t>
   </si>
   <si>
-    <t>time now = 15:30:45;</t>
+    <t>let x = 1;</t>
+  </si>
+  <si>
+    <t>let x = 0.05;</t>
+  </si>
+  <si>
+    <t>const name = "hastar";</t>
+  </si>
+  <si>
+    <t>let flag = TRUE;</t>
+  </si>
+  <si>
+    <t>let today = 2023-04-15;</t>
+  </si>
+  <si>
+    <t>const now = 15:30:45;</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -516,59 +516,59 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>

--- a/docs/spec/tables/primitives.xlsx
+++ b/docs/spec/tables/primitives.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\bkchxdi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E34EAA-78EB-46E5-96AE-709494681B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D296B0-81C5-401D-A60D-C86A43A261E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -92,13 +92,13 @@
     <t>const name = "hastar";</t>
   </si>
   <si>
-    <t>let flag = TRUE;</t>
-  </si>
-  <si>
     <t>let today = 2023-04-15;</t>
   </si>
   <si>
     <t>const now = 15:30:45;</t>
+  </si>
+  <si>
+    <t>let flag = true;</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -560,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
